--- a/biology/Botanique/Chamaedorea_glaucifolia/Chamaedorea_glaucifolia.xlsx
+++ b/biology/Botanique/Chamaedorea_glaucifolia/Chamaedorea_glaucifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chamaedorea glaucifolia est une espèce de plantes à fleurs de la famille des Arecaceae (les palmiers) que l'on trouve au Mexique dans le Chiapas[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chamaedorea glaucifolia est une espèce de plantes à fleurs de la famille des Arecaceae (les palmiers) que l'on trouve au Mexique dans le Chiapas.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un des plus grands Chamaedorea aux tiges solitaires, bien dressées. Sa croissance est assez rapide; il peut atteindre une taille de 5 m de haut. La tige de 2-3,5 cm de diamètre, est verte, avec des anneaux proéminents, avec des entretoises de 25-35 cm.
-Les feuilles: 3-5, pennées, érigées, ascendantes, sont duvetées d'un vert très foncé nuancé de bleu argenté (glauque) et se tiennent en forme de large couronne, la gaine de 25-40 cm de long, tubulaire, verte, ouverte obliquement vers le sommet, long pétiole de 15-40 cm, légèrement cannelé et vert, surtout vers la base, arrondi et de couleur vert glauque; rachis de 1 - 2 m de long, en angle. Les inflorescences sont infrafoliaires, érigées, solitaires, avec des pédoncules de 50 cm de long, ±épais, 7 mm de diamètre. Le fruit est globuleux, de couleur noire[2].
-Ce Chamaedorea prospère aussi bien dans les climats tempérés chauds et les climats tropicaux et aime croître dans des groupes denses. Très apparenté au C. plumosa de la même famille, il  apprécie les emplacements en plein soleil dans un jardin contrairement à la plupart des Chamaedorea [3]. Il ne peut croitre, en extérieur, que dans des régions quasiment sans gel (zone de rusticité 10a minimum) [4].
+Les feuilles: 3-5, pennées, érigées, ascendantes, sont duvetées d'un vert très foncé nuancé de bleu argenté (glauque) et se tiennent en forme de large couronne, la gaine de 25-40 cm de long, tubulaire, verte, ouverte obliquement vers le sommet, long pétiole de 15-40 cm, légèrement cannelé et vert, surtout vers la base, arrondi et de couleur vert glauque; rachis de 1 - 2 m de long, en angle. Les inflorescences sont infrafoliaires, érigées, solitaires, avec des pédoncules de 50 cm de long, ±épais, 7 mm de diamètre. Le fruit est globuleux, de couleur noire.
+Ce Chamaedorea prospère aussi bien dans les climats tempérés chauds et les climats tropicaux et aime croître dans des groupes denses. Très apparenté au C. plumosa de la même famille, il  apprécie les emplacements en plein soleil dans un jardin contrairement à la plupart des Chamaedorea . Il ne peut croitre, en extérieur, que dans des régions quasiment sans gel (zone de rusticité 10a minimum) .
 </t>
         </is>
       </c>
@@ -544,16 +558,18 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Chamaedorea glaucifolia , a été décrit par Hermann Wendland et publié en Index Palmarum 12, 64, dans l'année 1854 [5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Chamaedorea glaucifolia , a été décrit par Hermann Wendland et publié en Index Palmarum 12, 64, dans l'année 1854 .
 Etymologie
-Chamaedorea: Nom générique qui dérive des mots grecs: χαμαί (chamai), qui signifie "sur le terrain", et δωρεά (dorea), qui signifie "cadeau", en référence aux fruits facilement obtenus dans la  nature de par la  faible croissance des plantes [6].
-glaucifolia, építhète Latin qui signifie glaucus = de couleur grise et folia =  feuilles, en référence aux feuilles, pétioles et rachis qui sont glauques[2].
+Chamaedorea: Nom générique qui dérive des mots grecs: χαμαί (chamai), qui signifie "sur le terrain", et δωρεά (dorea), qui signifie "cadeau", en référence aux fruits facilement obtenus dans la  nature de par la  faible croissance des plantes .
+glaucifolia, építhète Latin qui signifie glaucus = de couleur grise et folia =  feuilles, en référence aux feuilles, pétioles et rachis qui sont glauques.
 Synonymies
 Chamaedorea crucifolia Hook.f.
 Discoma glaucifolia (H.Wendl.) O.F.Cook
-Nunnezharia glaucifolia (H.Wendl.) Kuntze [1],[7]</t>
+Nunnezharia glaucifolia (H.Wendl.) Kuntze ,</t>
         </is>
       </c>
     </row>
